--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Paso</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>gradiente(°C/min)</t>
+  </si>
+  <si>
+    <t>ROTACION</t>
+  </si>
+  <si>
+    <t>LLENADO</t>
+  </si>
+  <si>
+    <t>DESAGUE</t>
+  </si>
+  <si>
+    <t>ADITIVOS</t>
+  </si>
+  <si>
+    <t>MUESTREO</t>
+  </si>
+  <si>
+    <t>TEMPERATURA</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
   </si>
 </sst>
 </file>
@@ -312,19 +333,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -702,28 +723,28 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -782,21 +803,23 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -814,25 +837,29 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11">
+      <c r="A7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -848,23 +875,27 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11">
+      <c r="A9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -878,21 +909,25 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -910,22 +945,24 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11">
+      <c r="A13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -964,20 +1001,20 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1223,11 +1260,11 @@
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2" t="s">
@@ -1248,11 +1285,11 @@
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
@@ -1267,11 +1304,11 @@
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
@@ -1286,9 +1323,9 @@
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1300,11 +1337,11 @@
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1316,11 +1353,11 @@
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1330,11 +1367,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="G17:J17"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
@@ -1343,12 +1381,11 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -1367,7 +1404,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
@@ -1465,7 +1502,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>

--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Paso</t>
   </si>
@@ -186,9 +186,6 @@
     <t>h0</t>
   </si>
   <si>
-    <t>no. Paso</t>
-  </si>
-  <si>
     <t>idpaso</t>
   </si>
   <si>
@@ -250,6 +247,15 @@
   </si>
   <si>
     <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>CENTRIFUGA</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>nombrepaso</t>
   </si>
 </sst>
 </file>
@@ -285,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,19 +339,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,148 +739,148 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>7</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>8</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="A7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -869,35 +888,37 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="A9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -905,76 +926,82 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="16">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -1001,347 +1028,329 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" ref="J19:J22" si="0">HEX2DEC(SUBSTITUTE(I19,"h",""))</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" ref="J20:J23" si="0">HEX2DEC(SUBSTITUTE(I20,"h",""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="2" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="5">
-        <f>HEX2DEC(SUBSTITUTE(I23,"h",""))</f>
-        <v>4</v>
-      </c>
-    </row>
     <row r="24" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="15">
+        <f>HEX2DEC(SUBSTITUTE(I24,"h",""))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" ref="J24:J30" si="1">HEX2DEC(SUBSTITUTE(I24,"h",""))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>7</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1"/>
       <c r="G25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" ref="J25:J29" si="1">HEX2DEC(SUBSTITUTE(I25,"h",""))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="27" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="2" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="28" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>9</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="30" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1350,14 +1359,14 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1365,27 +1374,43 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G18:J18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -1404,7 +1429,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
@@ -1502,7 +1527,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11.5703125"/>
   </cols>

--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Paso</t>
   </si>
@@ -120,9 +120,6 @@
     <t>ADIT</t>
   </si>
   <si>
-    <t>DESC</t>
-  </si>
-  <si>
     <t>Dir</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
   </si>
   <si>
     <t>Plantilla</t>
-  </si>
-  <si>
-    <t>MeterAditIzq</t>
-  </si>
-  <si>
-    <t>MeterAditDer</t>
   </si>
   <si>
     <t>FUNCION</t>
@@ -342,8 +333,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -355,17 +356,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +732,8 @@
   </sheetPr>
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,18 +743,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
@@ -799,47 +790,47 @@
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -851,33 +842,33 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -888,34 +879,34 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -927,25 +918,25 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -964,44 +955,44 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -1040,77 +1031,77 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="8">
         <v>0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
       <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="G20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" ref="J20:J23" si="0">HEX2DEC(SUBSTITUTE(I20,"h",""))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="8">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
@@ -1119,7 +1110,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
@@ -1130,35 +1121,35 @@
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="I22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="8">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
       <c r="G23" s="2" t="s">
         <v>22</v>
@@ -1167,7 +1158,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="0"/>
@@ -1178,44 +1169,44 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="H24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="9">
         <f>HEX2DEC(SUBSTITUTE(I24,"h",""))</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="8">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" ref="J25:J29" si="1">HEX2DEC(SUBSTITUTE(I25,"h",""))</f>
@@ -1226,35 +1217,35 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="I26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="8">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1263,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="1"/>
@@ -1274,36 +1265,34 @@
       <c r="A28" s="2">
         <v>9</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="I28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
@@ -1313,7 +1302,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="1"/>
@@ -1324,23 +1313,21 @@
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -1348,9 +1335,9 @@
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1359,14 +1346,14 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1378,11 +1365,11 @@
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1436,7 +1423,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">

--- a/Programas/estructura paso.xlsx
+++ b/Programas/estructura paso.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hh\lav-tupesa\Programas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Paso</t>
   </si>
@@ -75,21 +80,12 @@
     <t>DW110</t>
   </si>
   <si>
-    <t>CENT</t>
-  </si>
-  <si>
     <t>DW120</t>
   </si>
   <si>
-    <t>ROTA</t>
-  </si>
-  <si>
     <t>DW130</t>
   </si>
   <si>
-    <t>LLEN</t>
-  </si>
-  <si>
     <t>DW140</t>
   </si>
   <si>
@@ -105,21 +101,9 @@
     <t>DW190</t>
   </si>
   <si>
-    <t>MANT</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>MUES</t>
-  </si>
-  <si>
-    <t>ADIT</t>
-  </si>
-  <si>
     <t>Dir</t>
   </si>
   <si>
@@ -138,9 +122,6 @@
     <t>DW100</t>
   </si>
   <si>
-    <t>FUNC</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -246,13 +227,19 @@
     <t>h1</t>
   </si>
   <si>
-    <t>nombrepaso</t>
+    <t>nnumeropaso</t>
+  </si>
+  <si>
+    <t>OZONO</t>
+  </si>
+  <si>
+    <t>vel(rpm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -314,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,7 +313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,7 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,6 +421,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -483,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,8 +720,8 @@
   </sheetPr>
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,95 +731,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>7</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>8</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -842,34 +826,32 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -879,35 +861,31 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -918,30 +896,26 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -955,44 +929,40 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -1031,88 +1001,88 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="G18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>0</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="G20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" ref="J20:J23" si="0">HEX2DEC(SUBSTITUTE(I20,"h",""))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="5">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1121,46 +1091,46 @@
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="5">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1169,46 +1139,46 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="7">
         <f>HEX2DEC(SUBSTITUTE(I24,"h",""))</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="5">
+        <v>39</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" ref="J25:J29" si="1">HEX2DEC(SUBSTITUTE(I25,"h",""))</f>
         <v>5</v>
       </c>
@@ -1217,46 +1187,46 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="G26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>8</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1"/>
       <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="5">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1265,46 +1235,46 @@
       <c r="A28" s="2">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="5">
+        <v>43</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1313,21 +1283,21 @@
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -1335,9 +1305,9 @@
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1346,14 +1316,14 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1365,11 +1335,11 @@
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1423,7 +1393,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
